--- a/data/trans_dic/ProblemasDormirP33b-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/ProblemasDormirP33b-Estudios-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2089351614711825</v>
+        <v>0.2081856470605689</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3397231467205973</v>
+        <v>0.3423747752666306</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.293449166622426</v>
+        <v>0.2919464965757473</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2740595471505716</v>
+        <v>0.2768968229642273</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3929097419697378</v>
+        <v>0.3949983905802424</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3366631790371208</v>
+        <v>0.3319019395170162</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09298362335558671</v>
+        <v>0.09188333096935201</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1537907254448244</v>
+        <v>0.1521332557570327</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.126749836951257</v>
+        <v>0.1253954019822864</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1212940913061755</v>
+        <v>0.1186478100177957</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1816634178164436</v>
+        <v>0.1818890802499346</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1468756777734519</v>
+        <v>0.1459244137287715</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09348807190524061</v>
+        <v>0.09357286955092281</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1296899998142448</v>
+        <v>0.1307360217993693</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1199873377855081</v>
+        <v>0.1182790930976496</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1517790732621382</v>
+        <v>0.1464969771803316</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1783604104427529</v>
+        <v>0.1783368014745361</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1567458083984527</v>
+        <v>0.1553477324105991</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.129806978416313</v>
+        <v>0.1298069784163131</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.2080514998024851</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1700497729986099</v>
+        <v>0.17004977299861</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1184864360927599</v>
+        <v>0.1183304482304215</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.19566255371323</v>
+        <v>0.198019602415188</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1622603982382269</v>
+        <v>0.1620109181232988</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1418954916196277</v>
+        <v>0.1424105249329928</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2199748868944377</v>
+        <v>0.2200068060658489</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1783712899885425</v>
+        <v>0.178606249571923</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>120875</v>
+        <v>120441</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>279265</v>
+        <v>281445</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>410995</v>
+        <v>408891</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>158551</v>
+        <v>160193</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>322987</v>
+        <v>324704</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>471519</v>
+        <v>464851</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>207406</v>
+        <v>204952</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>333940</v>
+        <v>330341</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>557948</v>
+        <v>551985</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>270554</v>
+        <v>264652</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>394462</v>
+        <v>394952</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>646541</v>
+        <v>642353</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>66525</v>
+        <v>66585</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>95306</v>
+        <v>96075</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>173557</v>
+        <v>171086</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>108004</v>
+        <v>104245</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>131073</v>
+        <v>131056</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>226727</v>
+        <v>224705</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>417153</v>
+        <v>416604</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>729490</v>
+        <v>738278</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1176224</v>
+        <v>1174416</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>499569</v>
+        <v>501382</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>820134</v>
+        <v>820253</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1293012</v>
+        <v>1294715</v>
       </c>
     </row>
     <row r="20">
